--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chang Kiat\Desktop\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84C9B2-41F4-42C0-A10A-F5B5723CE5A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11937253-8715-4C8C-B656-22D84FACAA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>1;2;3;4</t>
   </si>
@@ -103,16 +103,130 @@
   </si>
   <si>
     <t>Apple Orange Banana Good</t>
+  </si>
+  <si>
+    <t>Table (A,B,C,D)</t>
+  </si>
+  <si>
+    <t>Large;3;1000;1000</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Responder</t>
+  </si>
+  <si>
+    <t>Small;1;100;100</t>
+  </si>
+  <si>
+    <t>Small;1;200;200</t>
+  </si>
+  <si>
+    <t>Medium;2;200;300</t>
+  </si>
+  <si>
+    <t>Medium;2;300;400</t>
+  </si>
+  <si>
+    <t>Small;2;100;100</t>
+  </si>
+  <si>
+    <t>Small;3;100;100</t>
+  </si>
+  <si>
+    <t>Small;4;200;200</t>
+  </si>
+  <si>
+    <t>Small;2;200;200</t>
+  </si>
+  <si>
+    <t>Small;5;200;200</t>
+  </si>
+  <si>
+    <t>Small;5;100;100</t>
+  </si>
+  <si>
+    <t>Medium;1;200;300</t>
+  </si>
+  <si>
+    <t>Medium;4;200;300</t>
+  </si>
+  <si>
+    <t>Medium;3;200;300</t>
+  </si>
+  <si>
+    <t>Medium;1;300;400</t>
+  </si>
+  <si>
+    <t>Medium;4;300;400</t>
+  </si>
+  <si>
+    <t>Large;1;1000;1000</t>
+  </si>
+  <si>
+    <t>Large;2;1000;1000</t>
+  </si>
+  <si>
+    <t>Large;1;1511;1111</t>
+  </si>
+  <si>
+    <t>Medium;1;1111;1422</t>
+  </si>
+  <si>
+    <t>Small;2;1000;1231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,211 +534,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11937253-8715-4C8C-B656-22D84FACAA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72C97A-2EC9-43DD-96C3-FA6D5FFAEF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>1;2;3;4</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>This is good</t>
-  </si>
-  <si>
     <t>Multiple Choice</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>It is fine</t>
   </si>
   <si>
-    <t>Nil</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -78,15 +72,6 @@
     <t>Great</t>
   </si>
   <si>
-    <t>N.A.</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Really bad</t>
-  </si>
-  <si>
     <t>Very poor</t>
   </si>
   <si>
@@ -96,15 +81,6 @@
     <t>2;4;1</t>
   </si>
   <si>
-    <t>Great job</t>
-  </si>
-  <si>
-    <t>Excellent job</t>
-  </si>
-  <si>
-    <t>Apple Orange Banana Good</t>
-  </si>
-  <si>
     <t>Table (A,B,C,D)</t>
   </si>
   <si>
@@ -211,6 +187,18 @@
   </si>
   <si>
     <t>Small;2;1000;1231</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tested</t>
   </si>
 </sst>
 </file>
@@ -536,19 +524,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -557,351 +547,351 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72C97A-2EC9-43DD-96C3-FA6D5FFAEF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51B0CE-BD6A-4775-8277-80BECDD408C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>1;2;3;4</t>
   </si>
@@ -45,12 +45,6 @@
     <t>1;2;3</t>
   </si>
   <si>
-    <t>This is bad</t>
-  </si>
-  <si>
-    <t>It is fine</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>4;2</t>
   </si>
   <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Very poor</t>
-  </si>
-  <si>
     <t>1;3;5</t>
   </si>
   <si>
@@ -189,16 +177,43 @@
     <t>Small;2;1000;1231</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tested</t>
+    <t>Service quality is bad</t>
+  </si>
+  <si>
+    <t>The quality of service provided by company is poor</t>
+  </si>
+  <si>
+    <t>Product is good</t>
+  </si>
+  <si>
+    <t>Product is easy to use. It is great!</t>
+  </si>
+  <si>
+    <t>Product fulfills my requirements</t>
+  </si>
+  <si>
+    <t>Requirements are fulfilled</t>
+  </si>
+  <si>
+    <t>Product requires improvement</t>
+  </si>
+  <si>
+    <t>Product should be improved</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Utilisation Portal needs improvements</t>
+  </si>
+  <si>
+    <t>Utilisation Portal provides sufficient data</t>
+  </si>
+  <si>
+    <t>Utilisation Portal is not user friendly, more improvements should be made</t>
+  </si>
+  <si>
+    <t>Service Portal is difficult to use</t>
   </si>
 </sst>
 </file>
@@ -524,15 +539,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -547,206 +560,206 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -755,143 +768,143 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51B0CE-BD6A-4775-8277-80BECDD408C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAF384-9475-4AF1-B0AC-7A28189C28E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>1;2;3;4</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>Service Portal is difficult to use</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>1,3,5;OO;1</t>
+  </si>
+  <si>
+    <t>1,2,4;OO;2</t>
+  </si>
+  <si>
+    <t>1,4;OO;3</t>
+  </si>
+  <si>
+    <t>1,2,3;OO;2</t>
+  </si>
+  <si>
+    <t>1;OO;3</t>
+  </si>
+  <si>
+    <t>1,2;OO;4</t>
   </si>
 </sst>
 </file>
@@ -537,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -568,8 +589,23 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -594,8 +630,23 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -620,8 +671,23 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -646,8 +712,23 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -672,8 +753,23 @@
       <c r="H5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -698,8 +794,23 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -724,8 +835,23 @@
       <c r="H7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -750,8 +876,23 @@
       <c r="H8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -776,8 +917,23 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -802,8 +958,23 @@
       <c r="H10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -828,8 +999,23 @@
       <c r="H11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -854,8 +1040,23 @@
       <c r="H12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -880,8 +1081,23 @@
       <c r="H13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -905,6 +1121,21 @@
       </c>
       <c r="H14" t="s">
         <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAF384-9475-4AF1-B0AC-7A28189C28E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA29B0-D259-4451-95A6-718D6A28A263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,12 +222,6 @@
     <t>1,3,5;OO;1</t>
   </si>
   <si>
-    <t>1,2,4;OO;2</t>
-  </si>
-  <si>
-    <t>1,4;OO;3</t>
-  </si>
-  <si>
     <t>1,2,3;OO;2</t>
   </si>
   <si>
@@ -235,6 +229,12 @@
   </si>
   <si>
     <t>1,2;OO;4</t>
+  </si>
+  <si>
+    <t>1,2,4;OC;2</t>
+  </si>
+  <si>
+    <t>1,4;R;3</t>
   </si>
 </sst>
 </file>
@@ -634,13 +634,13 @@
         <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
         <v>64</v>
@@ -672,19 +672,19 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
       <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -713,19 +713,19 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
         <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -757,13 +757,13 @@
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
         <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
         <v>64</v>
@@ -795,19 +795,19 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
         <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -836,19 +836,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
       <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
         <v>69</v>
-      </c>
-      <c r="M7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -880,13 +880,13 @@
         <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
         <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
         <v>64</v>
@@ -918,19 +918,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
         <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -959,19 +959,19 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
       <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
         <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1003,13 +1003,13 @@
         <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
         <v>64</v>
@@ -1041,19 +1041,19 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
       <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
         <v>68</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1082,19 +1082,19 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
         <v>69</v>
       </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
       <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
         <v>69</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1126,13 +1126,13 @@
         <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
         <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
         <v>64</v>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA29B0-D259-4451-95A6-718D6A28A263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23B5961-8C39-4765-8793-B993A0CA256D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>1;2;3;4</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Product should be improved</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
   <si>
     <t>Utilisation Portal needs improvements</t>
@@ -560,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -590,19 +589,19 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -631,19 +630,19 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
       <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -672,19 +671,19 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -713,19 +712,19 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -754,19 +753,19 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
       <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -779,9 +778,6 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
       <c r="E6">
         <v>5</v>
       </c>
@@ -795,19 +791,19 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -821,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -836,19 +832,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -877,19 +873,19 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
       <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
         <v>64</v>
       </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -918,19 +914,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -944,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -959,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -985,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -1000,19 +996,19 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
       <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1026,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1041,19 +1037,19 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1082,19 +1078,19 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1123,19 +1119,19 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
       <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
         <v>64</v>
       </c>
-      <c r="L14" t="s">
-        <v>65</v>
-      </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
